--- a/data/input_excel/DBLP_mitigating_toxicity.xlsx
+++ b/data/input_excel/DBLP_mitigating_toxicity.xlsx
@@ -375,26 +375,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="56.83203125" customWidth="1"/>
+    <col min="2" max="2" width="77.83203125" customWidth="1"/>
     <col min="3" max="3" width="41.83203125" customWidth="1"/>
     <col min="4" max="4" width="124.83203125" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" customWidth="1"/>
     <col min="7" max="7" width="14.83203125" customWidth="1"/>
     <col min="8" max="8" width="5.83203125" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
     <col min="10" max="10" width="41.83203125" customWidth="1"/>
     <col min="11" max="11" width="200.83203125" customWidth="1"/>
     <col min="12" max="12" width="14.83203125" customWidth="1"/>
     <col min="13" max="13" width="97.83203125" customWidth="1"/>
     <col min="14" max="14" width="31.83203125" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="25.83203125" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -441,59 +442,65 @@
         <v>DOI</v>
       </c>
       <c r="O1" t="str">
+        <v>Series</v>
+      </c>
+      <c r="P1" t="str">
         <v>Eprint ID</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B2" t="str">
-        <v>Faal F,Schmitt KA,Yu JY</v>
+        <v>Villate-Castillo G,Sanz B,Ser J</v>
       </c>
       <c r="C2" t="str">
-        <v/>
+        <v>Calegari R,Dignum V,O'Sullivan B</v>
       </c>
       <c r="D2" t="str">
-        <v>Reward modeling for mitigating toxicity in transformer-based language models</v>
+        <v>Mitigating Toxicity in Dialogue Agents through Adversarial Reinforcement Learning</v>
       </c>
       <c r="E2" t="str">
-        <v>Appl. Intell.</v>
+        <v/>
       </c>
       <c r="F2" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G2" t="str">
-        <v>53</v>
+        <v>3808</v>
       </c>
       <c r="H2" t="str">
-        <v>7</v>
+        <v/>
       </c>
       <c r="I2" t="str">
-        <v>8421-8435</v>
+        <v/>
       </c>
       <c r="J2" t="str">
-        <v/>
+        <v>CEUR-WS.org</v>
       </c>
       <c r="K2" t="str">
-        <v/>
+        <v>Proceedings of the 2nd Workshop on Fairness and Bias in AI co-located with 27th European Conference on Artificial Intelligence (ECAI 2024), Santiago de Compostela, Spain, October 20th, 2024</v>
       </c>
       <c r="L2" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M2" t="str">
-        <v>https://doi.org/10.1007/s10489-022-03944-z;http://dx.doi.org/10.1007/S10489-022-03944-Z</v>
+        <v>https://ceur-ws.org/Vol-3808/paper7.pdf</v>
       </c>
       <c r="N2" t="str">
-        <v>10.1007/S10489-022-03944-Z</v>
+        <v/>
       </c>
       <c r="O2" t="str">
+        <v>CEUR Workshop Proceedings</v>
+      </c>
+      <c r="P2" t="str">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B3" t="str">
         <v>Yu Q,Li J,Wei L,Pang L,Ye W,Qin B,Tang S,Tian Q,Zhuang Y</v>
@@ -505,84 +512,90 @@
         <v>HalluciDoctor: Mitigating Hallucinatory Toxicity in Visual Instruction Data</v>
       </c>
       <c r="E3" t="str">
-        <v>CoRR</v>
+        <v/>
       </c>
       <c r="F3" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G3" t="str">
-        <v>abs/2311.13614</v>
+        <v/>
       </c>
       <c r="H3" t="str">
         <v/>
       </c>
       <c r="I3" t="str">
-        <v/>
+        <v>12944-12953</v>
       </c>
       <c r="J3" t="str">
-        <v/>
+        <v>IEEE</v>
       </c>
       <c r="K3" t="str">
-        <v/>
+        <v>IEEE/CVF Conference on Computer Vision and Pattern Recognition, CVPR 2024, Seattle, WA, USA, June 16-22, 2024</v>
       </c>
       <c r="L3" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M3" t="str">
-        <v>https://doi.org/10.48550/arXiv.2311.13614;http://dx.doi.org/10.48550/ARXIV.2311.13614</v>
+        <v>https://doi.org/10.1109/CVPR52733.2024.01230;http://dx.doi.org/10.1109/CVPR52733.2024.01230</v>
       </c>
       <c r="N3" t="str">
-        <v>10.48550/ARXIV.2311.13614</v>
+        <v>10.1109/CVPR52733.2024.01230</v>
       </c>
       <c r="O3" t="str">
-        <v>2311.13614</v>
+        <v/>
+      </c>
+      <c r="P3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B4" t="str">
-        <v>Lahnala A,Welch C,Neuendorf B,Flek L</v>
+        <v>Bhan M,Vittaut JN,Achache N,Legrand V,Chesneau N,Blangero A,Murris J,Lesot MJ</v>
       </c>
       <c r="C4" t="str">
-        <v>Carpuat M,de Marneffe MC,Ruíz IV</v>
+        <v/>
       </c>
       <c r="D4" t="str">
-        <v>Mitigating Toxic Degeneration with Empathetic Data: Exploring the Relationship Between Toxicity and Empathy</v>
+        <v>Mitigating Text Toxicity with Counterfactual Generation</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F4" t="str">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="G4" t="str">
-        <v/>
+        <v>abs/2405.09948</v>
       </c>
       <c r="H4" t="str">
         <v/>
       </c>
       <c r="I4" t="str">
-        <v>4926-4938</v>
+        <v/>
       </c>
       <c r="J4" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v/>
       </c>
       <c r="K4" t="str">
-        <v>Proceedings of the 2022 Conference of the North American Chapter of the Association for Computational Linguistics: Human Language Technologies, NAACL 2022, Seattle, WA, United States, July 10-15, 2022</v>
+        <v/>
       </c>
       <c r="L4" t="str">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="M4" t="str">
-        <v>https://doi.org/10.18653/v1/2022.naacl-main.363;http://dx.doi.org/10.18653/V1/2022.NAACL-MAIN.363</v>
+        <v>https://doi.org/10.48550/arXiv.2405.09948;http://dx.doi.org/10.48550/ARXIV.2405.09948</v>
       </c>
       <c r="N4" t="str">
-        <v>10.18653/V1/2022.NAACL-MAIN.363</v>
+        <v>10.48550/ARXIV.2405.09948</v>
       </c>
       <c r="O4" t="str">
         <v/>
+      </c>
+      <c r="P4" t="str">
+        <v>2405.09948</v>
       </c>
     </row>
     <row r="5">
@@ -590,22 +603,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B5" t="str">
-        <v>Faal F,Schmitt KA,Yu JY</v>
+        <v>Brun C,Nikoulina V</v>
       </c>
       <c r="C5" t="str">
         <v/>
       </c>
       <c r="D5" t="str">
-        <v>Reward Modeling for Mitigating Toxicity in Transformer-based Language Models</v>
+        <v>FrenchToxicityPrompts: a Large Benchmark for Evaluating and Mitigating Toxicity in French Texts</v>
       </c>
       <c r="E5" t="str">
         <v>CoRR</v>
       </c>
       <c r="F5" t="str">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="G5" t="str">
-        <v>abs/2202.09662</v>
+        <v>abs/2406.17566</v>
       </c>
       <c r="H5" t="str">
         <v/>
@@ -620,16 +633,19 @@
         <v/>
       </c>
       <c r="L5" t="str">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="M5" t="str">
-        <v>https://arxiv.org/abs/2202.09662</v>
+        <v>https://doi.org/10.48550/arXiv.2406.17566;http://dx.doi.org/10.48550/ARXIV.2406.17566</v>
       </c>
       <c r="N5" t="str">
-        <v/>
+        <v>10.48550/ARXIV.2406.17566</v>
       </c>
       <c r="O5" t="str">
-        <v>2202.09662</v>
+        <v/>
+      </c>
+      <c r="P5" t="str">
+        <v>2406.17566</v>
       </c>
     </row>
     <row r="6">
@@ -637,28 +653,28 @@
         <v>Journal Article</v>
       </c>
       <c r="B6" t="str">
-        <v>Lahnala A,Welch C,Neuendorf B,Flek L</v>
+        <v>Faal F,Schmitt KA,Yu JY</v>
       </c>
       <c r="C6" t="str">
         <v/>
       </c>
       <c r="D6" t="str">
-        <v>Mitigating Toxic Degeneration with Empathetic Data: Exploring the Relationship Between Toxicity and Empathy</v>
+        <v>Reward modeling for mitigating toxicity in transformer-based language models</v>
       </c>
       <c r="E6" t="str">
-        <v>CoRR</v>
+        <v>Appl. Intell.</v>
       </c>
       <c r="F6" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G6" t="str">
-        <v>abs/2205.07233</v>
+        <v>53</v>
       </c>
       <c r="H6" t="str">
-        <v/>
+        <v>7</v>
       </c>
       <c r="I6" t="str">
-        <v/>
+        <v>8421-8435</v>
       </c>
       <c r="J6" t="str">
         <v/>
@@ -667,115 +683,324 @@
         <v/>
       </c>
       <c r="L6" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="M6" t="str">
-        <v>https://doi.org/10.48550/arXiv.2205.07233;http://dx.doi.org/10.48550/ARXIV.2205.07233</v>
+        <v>https://doi.org/10.1007/s10489-022-03944-z;http://dx.doi.org/10.1007/S10489-022-03944-Z</v>
       </c>
       <c r="N6" t="str">
-        <v>10.48550/ARXIV.2205.07233</v>
+        <v>10.1007/S10489-022-03944-Z</v>
       </c>
       <c r="O6" t="str">
-        <v>2205.07233</v>
+        <v/>
+      </c>
+      <c r="P6" t="str">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B7" t="str">
-        <v>Zhang G,Bai B,Zhang J,Bai K,Zhu C,Zhao T</v>
+        <v>Yu Q,Li J,Wei L,Pang L,Ye W,Qin B,Tang S,Tian Q,Zhuang Y</v>
       </c>
       <c r="C7" t="str">
-        <v>Jurafsky D,Chai J,Schluter N,Tetreault JR</v>
+        <v/>
       </c>
       <c r="D7" t="str">
-        <v>Demographics Should Not Be the Reason of Toxicity: Mitigating Discrimination in Text Classifications with Instance Weighting</v>
+        <v>HalluciDoctor: Mitigating Hallucinatory Toxicity in Visual Instruction Data</v>
       </c>
       <c r="E7" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F7" t="str">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="G7" t="str">
-        <v/>
+        <v>abs/2311.13614</v>
       </c>
       <c r="H7" t="str">
         <v/>
       </c>
       <c r="I7" t="str">
-        <v>4134-4145</v>
+        <v/>
       </c>
       <c r="J7" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v/>
       </c>
       <c r="K7" t="str">
-        <v>Proceedings of the 58th Annual Meeting of the Association for Computational Linguistics, ACL 2020, Online, July 5-10, 2020</v>
+        <v/>
       </c>
       <c r="L7" t="str">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="M7" t="str">
-        <v>https://doi.org/10.18653/v1/2020.acl-main.380;http://dx.doi.org/10.18653/V1/2020.ACL-MAIN.380</v>
+        <v>https://doi.org/10.48550/arXiv.2311.13614;http://dx.doi.org/10.48550/ARXIV.2311.13614</v>
       </c>
       <c r="N7" t="str">
-        <v>10.18653/V1/2020.ACL-MAIN.380</v>
+        <v>10.48550/ARXIV.2311.13614</v>
       </c>
       <c r="O7" t="str">
         <v/>
+      </c>
+      <c r="P7" t="str">
+        <v>2311.13614</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Lahnala A,Welch C,Neuendorf B,Flek L</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Carpuat M,de Marneffe MC,Ruíz IV</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Mitigating Toxic Degeneration with Empathetic Data: Exploring the Relationship Between Toxicity and Empathy</v>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v>2022</v>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v>4926-4938</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Association for Computational Linguistics</v>
+      </c>
+      <c r="K8" t="str">
+        <v>Proceedings of the 2022 Conference of the North American Chapter of the Association for Computational Linguistics: Human Language Technologies, NAACL 2022, Seattle, WA, United States, July 10-15, 2022</v>
+      </c>
+      <c r="L8" t="str">
+        <v>2022</v>
+      </c>
+      <c r="M8" t="str">
+        <v>https://doi.org/10.18653/v1/2022.naacl-main.363;http://dx.doi.org/10.18653/V1/2022.NAACL-MAIN.363</v>
+      </c>
+      <c r="N8" t="str">
+        <v>10.18653/V1/2022.NAACL-MAIN.363</v>
+      </c>
+      <c r="O8" t="str">
+        <v/>
+      </c>
+      <c r="P8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
         <v>Journal Article</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B9" t="str">
+        <v>Faal F,Schmitt KA,Yu JY</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v>Reward Modeling for Mitigating Toxicity in Transformer-based Language Models</v>
+      </c>
+      <c r="E9" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F9" t="str">
+        <v>2022</v>
+      </c>
+      <c r="G9" t="str">
+        <v>abs/2202.09662</v>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <v>2022</v>
+      </c>
+      <c r="M9" t="str">
+        <v>https://arxiv.org/abs/2202.09662</v>
+      </c>
+      <c r="N9" t="str">
+        <v/>
+      </c>
+      <c r="O9" t="str">
+        <v/>
+      </c>
+      <c r="P9" t="str">
+        <v>2202.09662</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Lahnala A,Welch C,Neuendorf B,Flek L</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v>Mitigating Toxic Degeneration with Empathetic Data: Exploring the Relationship Between Toxicity and Empathy</v>
+      </c>
+      <c r="E10" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F10" t="str">
+        <v>2022</v>
+      </c>
+      <c r="G10" t="str">
+        <v>abs/2205.07233</v>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <v>2022</v>
+      </c>
+      <c r="M10" t="str">
+        <v>https://doi.org/10.48550/arXiv.2205.07233;http://dx.doi.org/10.48550/ARXIV.2205.07233</v>
+      </c>
+      <c r="N10" t="str">
+        <v>10.48550/ARXIV.2205.07233</v>
+      </c>
+      <c r="O10" t="str">
+        <v/>
+      </c>
+      <c r="P10" t="str">
+        <v>2205.07233</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B11" t="str">
         <v>Zhang G,Bai B,Zhang J,Bai K,Zhu C,Zhao T</v>
       </c>
-      <c r="C8" t="str">
-        <v/>
-      </c>
-      <c r="D8" t="str">
+      <c r="C11" t="str">
+        <v>Jurafsky D,Chai J,Schluter N,Tetreault JR</v>
+      </c>
+      <c r="D11" t="str">
         <v>Demographics Should Not Be the Reason of Toxicity: Mitigating Discrimination in Text Classifications with Instance Weighting</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v>2020</v>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v>4134-4145</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Association for Computational Linguistics</v>
+      </c>
+      <c r="K11" t="str">
+        <v>Proceedings of the 58th Annual Meeting of the Association for Computational Linguistics, ACL 2020, Online, July 5-10, 2020</v>
+      </c>
+      <c r="L11" t="str">
+        <v>2020</v>
+      </c>
+      <c r="M11" t="str">
+        <v>https://doi.org/10.18653/v1/2020.acl-main.380;http://dx.doi.org/10.18653/V1/2020.ACL-MAIN.380</v>
+      </c>
+      <c r="N11" t="str">
+        <v>10.18653/V1/2020.ACL-MAIN.380</v>
+      </c>
+      <c r="O11" t="str">
+        <v/>
+      </c>
+      <c r="P11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Zhang G,Bai B,Zhang J,Bai K,Zhu C,Zhao T</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v>Demographics Should Not Be the Reason of Toxicity: Mitigating Discrimination in Text Classifications with Instance Weighting</v>
+      </c>
+      <c r="E12" t="str">
         <v>CoRR</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F12" t="str">
         <v>2020</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G12" t="str">
         <v>abs/2004.14088</v>
       </c>
-      <c r="H8" t="str">
-        <v/>
-      </c>
-      <c r="I8" t="str">
-        <v/>
-      </c>
-      <c r="J8" t="str">
-        <v/>
-      </c>
-      <c r="K8" t="str">
-        <v/>
-      </c>
-      <c r="L8" t="str">
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v/>
+      </c>
+      <c r="L12" t="str">
         <v>2020</v>
       </c>
-      <c r="M8" t="str">
+      <c r="M12" t="str">
         <v>https://arxiv.org/abs/2004.14088</v>
       </c>
-      <c r="N8" t="str">
-        <v/>
-      </c>
-      <c r="O8" t="str">
+      <c r="N12" t="str">
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <v/>
+      </c>
+      <c r="P12" t="str">
         <v>2004.14088</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P12"/>
   </ignoredErrors>
 </worksheet>
 </file>